--- a/biology/Botanique/Forêt_de_Montargis/Forêt_de_Montargis.xlsx
+++ b/biology/Botanique/Forêt_de_Montargis/Forêt_de_Montargis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Montargis</t>
+          <t>Forêt_de_Montargis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Montargis est une forêt domaniale française située sur le territoire de dix communes du département du Loiret (région Centre-Val de Loire), au nord-est de Montargis, dans la région naturelle du Gâtinais.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Montargis</t>
+          <t>Forêt_de_Montargis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt, d'une superficie de 4 100 hectares, s'étend sur le territoire de dix communes du Loiret : Paucourt (pour sa plus grande partie), Montargis, Châlette-sur-Loing, Cepoy, Griselles, Louzouer, La Chapelle-Saint-Sépulcre, La Selle-en-Hermoy, Ferrières-en-Gâtinais et Amilly[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt, d'une superficie de 4 100 hectares, s'étend sur le territoire de dix communes du Loiret : Paucourt (pour sa plus grande partie), Montargis, Châlette-sur-Loing, Cepoy, Griselles, Louzouer, La Chapelle-Saint-Sépulcre, La Selle-en-Hermoy, Ferrières-en-Gâtinais et Amilly.
 Elle est traversée par les routes nationales 7 à l'ouest et 60 au sud ainsi que par la route départementale 815.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Montargis</t>
+          <t>Forêt_de_Montargis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -552,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Montargis</t>
+          <t>Forêt_de_Montargis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,14 +586,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La forêt est essentiellement composée de chênes (50 %), l'autre moitié se partageant entre charmes, bouleaux, pins sylvestres et hêtres[2].
-Le centre de la forêt comporte une clairière dans laquelle a été édifié le bourg du village de Paucourt qui héberge la maison de la forêt de l'agglomération montargoise[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La forêt est essentiellement composée de chênes (50 %), l'autre moitié se partageant entre charmes, bouleaux, pins sylvestres et hêtres.
+Le centre de la forêt comporte une clairière dans laquelle a été édifié le bourg du village de Paucourt qui héberge la maison de la forêt de l'agglomération montargoise.
 La forêt comprend trois zones naturelles d'intérêt écologique, floristique et faunistique :
-la forêt de Montargis, de type 2 : hêtre, chênes, charmes et mares forestières[4] ;
-le secteur à myrtilles de la forêt de Montargis, de type 1, à Griselles : chênes, charmes et hêtres[5] ;
-le secteur d'intérêt mycologique de la forêt de Montargis, de type 1, à Châlette-sur-Loing et Paucourt : chênes et forte diversité mycologique[6].</t>
+la forêt de Montargis, de type 2 : hêtre, chênes, charmes et mares forestières ;
+le secteur à myrtilles de la forêt de Montargis, de type 1, à Griselles : chênes, charmes et hêtres ;
+le secteur d'intérêt mycologique de la forêt de Montargis, de type 1, à Châlette-sur-Loing et Paucourt : chênes et forte diversité mycologique.</t>
         </is>
       </c>
     </row>
